--- a/app/templates/report/disponibilidad.xlsx
+++ b/app/templates/report/disponibilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3BA91D-D4C6-47E6-89D2-186B81032939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4861DD98-D6BD-4C81-A22B-38D068253007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Edificio</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Disponibilidades entre dos fechas</t>
+  </si>
+  <si>
+    <t>Días</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -202,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -587,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,10 +605,11 @@
     <col min="5" max="5" width="17.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.5546875" style="3" customWidth="1"/>
     <col min="7" max="8" width="12.5546875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="24.88671875" style="2"/>
+    <col min="9" max="9" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="24.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -615,8 +622,9 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -641,8 +649,11 @@
       <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -655,10 +666,17 @@
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="I3" s="11" t="e">
+        <f>H3-G3+1</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I3" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/app/templates/report/disponibilidad.xlsx
+++ b/app/templates/report/disponibilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4861DD98-D6BD-4C81-A22B-38D068253007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942082CE-C664-4EA7-8258-1C4621A94C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Disponibilidad" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Disponibilidad!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Disponibilidad!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -672,7 +672,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
